--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\Working stuffs\Analysis\Olympic FC\Data app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6613BDA0-A653-4EBC-BA1B-BABF5A7B6BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4928C5D-A8C4-4D1A-9B2C-B93772DCE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="NPLQ fixtures" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3701,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3712,25 +3712,25 @@
         <v>44779</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E110" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H110" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3741,25 +3741,25 @@
         <v>44779</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E111" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H111" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3767,28 +3767,28 @@
         <v>20</v>
       </c>
       <c r="B112" s="3">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H112" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>30</v>
       </c>
       <c r="E113" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>21</v>
@@ -3814,10 +3814,10 @@
         <v>22</v>
       </c>
       <c r="H113" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>13</v>
       </c>
       <c r="E114" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>17</v>
@@ -3843,10 +3843,10 @@
         <v>18</v>
       </c>
       <c r="H114" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="E115" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>27</v>
@@ -3872,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="H115" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>31</v>
@@ -3892,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="E116" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>25</v>
@@ -3901,7 +3901,7 @@
         <v>26</v>
       </c>
       <c r="H116" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>31</v>
@@ -3915,22 +3915,22 @@
         <v>44787</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E117" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H117" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>31</v>
@@ -3944,22 +3944,22 @@
         <v>44787</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E118" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H118" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>31</v>
@@ -3973,22 +3973,22 @@
         <v>44787</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E119" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H119" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>31</v>
@@ -4002,22 +4002,22 @@
         <v>44787</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E120" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H120" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>31</v>
@@ -4031,22 +4031,22 @@
         <v>44787</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E121" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H121" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>31</v>
@@ -4057,22 +4057,22 @@
         <v>21</v>
       </c>
       <c r="B122" s="3">
-        <v>44787</v>
+        <v>44790</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2">
         <v>-1</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H122" s="2">
         <v>-1</v>
@@ -4089,19 +4089,19 @@
         <v>44790</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E123" s="2">
         <v>-1</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H123" s="2">
         <v>-1</v>
@@ -4112,25 +4112,25 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B124" s="3">
-        <v>44790</v>
+        <v>44793</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E124" s="2">
         <v>-1</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H124" s="2">
         <v>-1</v>
@@ -4147,19 +4147,19 @@
         <v>44793</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2">
         <v>-1</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H125" s="2">
         <v>-1</v>
@@ -4176,19 +4176,19 @@
         <v>44793</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E126" s="2">
         <v>-1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H126" s="2">
         <v>-1</v>
@@ -4205,19 +4205,19 @@
         <v>44793</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2">
         <v>-1</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H127" s="2">
         <v>-1</v>
@@ -4234,19 +4234,19 @@
         <v>44793</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E128" s="2">
         <v>-1</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H128" s="2">
         <v>-1</v>
@@ -4263,19 +4263,19 @@
         <v>44793</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E129" s="2">
         <v>-1</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H129" s="2">
         <v>-1</v>
@@ -4286,16 +4286,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B130" s="3">
-        <v>44793</v>
+        <v>44796</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E130" s="2">
         <v>-1</v>
@@ -4315,25 +4315,25 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B131" s="3">
-        <v>44796</v>
+        <v>44800</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E131" s="2">
         <v>-1</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H131" s="2">
         <v>-1</v>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4928C5D-A8C4-4D1A-9B2C-B93772DCE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BA9C22-1552-4926-A97A-6AEBAEF8B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="NPLQ fixtures" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="E122" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>23</v>
@@ -4075,7 +4075,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>31</v>
@@ -4095,7 +4095,7 @@
         <v>30</v>
       </c>
       <c r="E123" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>25</v>
@@ -4104,7 +4104,7 @@
         <v>26</v>
       </c>
       <c r="H123" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>31</v>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BA9C22-1552-4926-A97A-6AEBAEF8B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E188330-6EAB-4928-9014-D723D0C9865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="37">
   <si>
     <t>Round</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>GF</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R142" sqref="R142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4078,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4107,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4124,7 +4130,7 @@
         <v>28</v>
       </c>
       <c r="E124" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>14</v>
@@ -4133,10 +4139,10 @@
         <v>15</v>
       </c>
       <c r="H124" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4153,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="E125" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>29</v>
@@ -4162,10 +4168,10 @@
         <v>30</v>
       </c>
       <c r="H125" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,7 +4188,7 @@
         <v>26</v>
       </c>
       <c r="E126" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>19</v>
@@ -4191,10 +4197,10 @@
         <v>20</v>
       </c>
       <c r="H126" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="E127" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>21</v>
@@ -4220,10 +4226,10 @@
         <v>22</v>
       </c>
       <c r="H127" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4240,7 +4246,7 @@
         <v>18</v>
       </c>
       <c r="E128" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>23</v>
@@ -4249,10 +4255,10 @@
         <v>24</v>
       </c>
       <c r="H128" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4269,7 +4275,7 @@
         <v>16</v>
       </c>
       <c r="E129" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>8</v>
@@ -4278,10 +4284,10 @@
         <v>9</v>
       </c>
       <c r="H129" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4289,7 +4295,7 @@
         <v>18</v>
       </c>
       <c r="B130" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
@@ -4298,7 +4304,7 @@
         <v>28</v>
       </c>
       <c r="E130" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>8</v>
@@ -4307,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="H130" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>31</v>
@@ -4397,6 +4403,93 @@
         <v>-1</v>
       </c>
       <c r="I133" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" s="3">
+        <v>44807</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" s="3">
+        <v>44808</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="3">
+        <v>44814</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E188330-6EAB-4928-9014-D723D0C9865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839DA86-7D67-4576-9355-FEFA7A7F60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R142" sqref="R142"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4333,7 +4333,7 @@
         <v>24</v>
       </c>
       <c r="E131" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -4342,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="H131" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>31</v>
@@ -4362,7 +4362,7 @@
         <v>28</v>
       </c>
       <c r="E132" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>21</v>
@@ -4371,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="H132" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>31</v>
@@ -4391,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="E133" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
@@ -4400,7 +4400,7 @@
         <v>26</v>
       </c>
       <c r="H133" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>31</v>
@@ -4420,7 +4420,7 @@
         <v>18</v>
       </c>
       <c r="E134" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>32</v>
@@ -4429,7 +4429,7 @@
         <v>13</v>
       </c>
       <c r="H134" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>31</v>
@@ -4449,7 +4449,7 @@
         <v>26</v>
       </c>
       <c r="E135" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>8</v>
@@ -4458,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="H135" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>31</v>
@@ -4472,19 +4472,19 @@
         <v>44814</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E136" s="2">
         <v>-1</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H136" s="2">
         <v>-1</v>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839DA86-7D67-4576-9355-FEFA7A7F60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645AB59-01EB-4964-9290-18B83EBB523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4316,7 +4316,7 @@
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645AB59-01EB-4964-9290-18B83EBB523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3587EE-3BA4-4FC1-8A4B-30B2D5AA1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="35">
   <si>
     <t>Round</t>
   </si>
@@ -86,9 +86,6 @@
     <t>EAS</t>
   </si>
   <si>
-    <t>CAP</t>
-  </si>
-  <si>
     <t>Lions</t>
   </si>
   <si>
@@ -105,12 +102,6 @@
   </si>
   <si>
     <t>SCW</t>
-  </si>
-  <si>
-    <t>Logan Lightning</t>
-  </si>
-  <si>
-    <t>LIG</t>
   </si>
   <si>
     <t>Gold Coast Knights</t>
@@ -134,19 +125,22 @@
     <t>N</t>
   </si>
   <si>
-    <t>Olympic FC</t>
-  </si>
-  <si>
-    <t>Capalaba FC</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>Rochedale Rovers</t>
   </si>
   <si>
-    <t>GF</t>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Redlands United</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>Olympic</t>
   </si>
 </sst>
 </file>
@@ -532,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -554,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -580,28 +574,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>44639</v>
+        <v>44981</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
         <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -609,28 +603,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>44639</v>
+        <v>44982</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
@@ -638,28 +632,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>44639</v>
+        <v>44982</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>12</v>
@@ -667,28 +661,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>44640</v>
+        <v>44982</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>12</v>
@@ -696,28 +690,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>44640</v>
+        <v>44982</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>12</v>
@@ -725,25 +719,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44640</v>
+        <v>44983</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -757,25 +751,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>44646</v>
+        <v>44989</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
@@ -786,25 +780,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>44646</v>
+        <v>44989</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>12</v>
@@ -815,25 +809,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>44646</v>
+        <v>44989</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>12</v>
@@ -844,25 +838,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>44647</v>
+        <v>44989</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>12</v>
@@ -873,25 +867,25 @@
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>44647</v>
+        <v>44989</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>12</v>
@@ -899,25 +893,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>44652</v>
+        <v>44990</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -928,19 +922,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>44653</v>
+        <v>44996</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -949,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>12</v>
@@ -957,28 +951,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>44653</v>
+        <v>44996</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>12</v>
@@ -986,28 +980,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>44653</v>
+        <v>44996</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2">
         <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>12</v>
@@ -1015,25 +1009,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>44653</v>
+        <v>44996</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1044,28 +1038,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3">
-        <v>44654</v>
+        <v>44999</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
@@ -1073,25 +1067,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>44660</v>
+        <v>44999</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
@@ -1102,25 +1096,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3">
-        <v>44660</v>
+        <v>45003</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -1131,28 +1125,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3">
-        <v>44661</v>
+        <v>45003</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>12</v>
@@ -1160,28 +1154,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3">
-        <v>44661</v>
+        <v>45003</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>12</v>
@@ -1189,28 +1183,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>44661</v>
+        <v>45004</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
         <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>12</v>
@@ -1218,28 +1212,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3">
-        <v>44661</v>
+        <v>45004</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>12</v>
@@ -1247,28 +1241,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3">
-        <v>44665</v>
+        <v>45004</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2">
         <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>12</v>
@@ -1276,28 +1270,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3">
-        <v>44667</v>
+        <v>45010</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>12</v>
@@ -1305,28 +1299,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3">
-        <v>44667</v>
+        <v>45010</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>12</v>
@@ -1334,25 +1328,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>44667</v>
+        <v>45010</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1363,25 +1357,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45010</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="B29" s="3">
-        <v>44667</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1392,25 +1386,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3">
-        <v>44668</v>
+        <v>45011</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1421,25 +1415,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3">
-        <v>44673</v>
+        <v>45011</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1450,28 +1444,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>44674</v>
+        <v>45024</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>12</v>
@@ -1479,28 +1473,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="3">
-        <v>44674</v>
+        <v>45024</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>12</v>
@@ -1508,28 +1502,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="3">
-        <v>44674</v>
+        <v>45024</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>12</v>
@@ -1537,28 +1531,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="3">
-        <v>44675</v>
+        <v>45025</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
@@ -1566,25 +1560,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="3">
-        <v>44675</v>
+        <v>45025</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -1595,10 +1589,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3">
-        <v>44678</v>
+        <v>45025</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -1607,16 +1601,16 @@
         <v>9</v>
       </c>
       <c r="E37" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>12</v>
@@ -1624,25 +1618,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B38" s="3">
-        <v>44678</v>
+        <v>45038</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -1653,25 +1647,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3">
-        <v>44680</v>
+        <v>45038</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="2">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -1682,28 +1676,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3">
-        <v>44681</v>
+        <v>45038</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H40" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>12</v>
@@ -1711,28 +1705,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3">
-        <v>44681</v>
+        <v>45038</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>12</v>
@@ -1740,28 +1734,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3">
-        <v>44682</v>
+        <v>45039</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>12</v>
@@ -1769,28 +1763,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45039</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="2">
         <v>1</v>
-      </c>
-      <c r="B43" s="3">
-        <v>44684</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="2">
-        <v>4</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>12</v>
@@ -1798,176 +1792,176 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45045</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="3">
-        <v>44684</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45045</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="B45" s="3">
-        <v>44685</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B46" s="3">
-        <v>44685</v>
+        <v>45045</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E46" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3">
-        <v>44688</v>
+        <v>45046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="3">
-        <v>44688</v>
+        <v>45046</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H48" s="2">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3">
-        <v>44688</v>
+        <v>45048</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="2">
-        <v>2</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H49" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,28 +1969,28 @@
         <v>9</v>
       </c>
       <c r="B50" s="3">
-        <v>44688</v>
+        <v>45051</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2004,28 +1998,28 @@
         <v>9</v>
       </c>
       <c r="B51" s="3">
-        <v>44689</v>
+        <v>45052</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,144 +2027,144 @@
         <v>9</v>
       </c>
       <c r="B52" s="3">
-        <v>44689</v>
+        <v>45052</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="2">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H52" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45052</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>44702</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E53" s="2">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H53" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B54" s="3">
-        <v>44709</v>
+        <v>45052</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H54" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="3">
-        <v>44709</v>
+        <v>45053</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" s="3">
-        <v>44710</v>
+        <v>45059</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,28 +2172,28 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>44716</v>
+        <v>45059</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H57" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,28 +2201,28 @@
         <v>10</v>
       </c>
       <c r="B58" s="3">
-        <v>44716</v>
+        <v>45059</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E58" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2236,28 +2230,28 @@
         <v>10</v>
       </c>
       <c r="B59" s="3">
-        <v>44716</v>
+        <v>45059</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H59" s="2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,28 +2259,28 @@
         <v>10</v>
       </c>
       <c r="B60" s="3">
-        <v>44717</v>
+        <v>45060</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,886 +2288,886 @@
         <v>10</v>
       </c>
       <c r="B61" s="3">
-        <v>44718</v>
+        <v>45060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H61" s="2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>44719</v>
+        <v>45065</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H62" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B63" s="3">
-        <v>44722</v>
+        <v>45066</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E63" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>44723</v>
+        <v>45066</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>44723</v>
+        <v>45066</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E65" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H65" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>44723</v>
+        <v>45067</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H66" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>44723</v>
+        <v>45067</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="3">
-        <v>44723</v>
+        <v>45080</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H68" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69" s="3">
-        <v>44729</v>
+        <v>45080</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E69" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B70" s="3">
-        <v>44729</v>
+        <v>45080</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" s="3">
-        <v>44730</v>
+        <v>45080</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E71" s="2">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" s="3">
-        <v>44730</v>
+        <v>45081</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="2">
-        <v>5</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73" s="3">
-        <v>44731</v>
+        <v>45081</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H73" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" s="3">
-        <v>44731</v>
+        <v>45087</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="2">
-        <v>2</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H74" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B75" s="3">
-        <v>44737</v>
+        <v>45087</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="2">
-        <v>3</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B76" s="3">
-        <v>44737</v>
+        <v>45088</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B77" s="3">
-        <v>44737</v>
+        <v>45088</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
+        <v>13</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45088</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="3">
-        <v>44737</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="2">
-        <v>6</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B79" s="3">
-        <v>44738</v>
+        <v>45088</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3">
-        <v>44738</v>
+        <v>45093</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H80" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" s="3">
-        <v>44743</v>
+        <v>45093</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E81" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H81" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82" s="3">
-        <v>44750</v>
+        <v>45094</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H82" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
+        <v>14</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45094</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="3">
-        <v>44751</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="2">
-        <v>5</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B84" s="3">
-        <v>44751</v>
+        <v>45094</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E84" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H84" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B85" s="3">
-        <v>44752</v>
+        <v>45095</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H85" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
+        <v>15</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45100</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="3">
-        <v>44752</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E86" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H86" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B87" s="3">
-        <v>44752</v>
+        <v>45101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E87" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H87" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B88" s="3">
-        <v>44755</v>
+        <v>45101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H88" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B89" s="3">
-        <v>44758</v>
+        <v>45102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H89" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B90" s="3">
-        <v>44758</v>
+        <v>45102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H90" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B91" s="3">
-        <v>44759</v>
+        <v>45102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -3182,68 +3176,68 @@
         <v>11</v>
       </c>
       <c r="H91" s="2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B92" s="3">
-        <v>44759</v>
+        <v>45114</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E92" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H92" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B93" s="3">
-        <v>44761</v>
+        <v>45115</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E93" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H93" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,28 +3245,28 @@
         <v>16</v>
       </c>
       <c r="B94" s="3">
-        <v>44762</v>
+        <v>45115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E94" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H94" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3280,782 +3274,782 @@
         <v>16</v>
       </c>
       <c r="B95" s="3">
-        <v>44762</v>
+        <v>45115</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H95" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B96" s="3">
-        <v>44765</v>
+        <v>45115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="2">
-        <v>3</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H96" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B97" s="3">
-        <v>44766</v>
+        <v>45116</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E97" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H97" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98" s="3">
-        <v>44766</v>
+        <v>45121</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H98" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
+        <v>17</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45122</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="3">
-        <v>44766</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H99" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B100" s="3">
-        <v>44769</v>
+        <v>45122</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E100" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H100" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B101" s="3">
-        <v>44771</v>
+        <v>45122</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E101" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H101" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B102" s="3">
-        <v>44772</v>
+        <v>45123</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E102" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H102" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B103" s="3">
-        <v>44772</v>
+        <v>45123</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E103" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H103" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104" s="3">
-        <v>44772</v>
+        <v>45128</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H104" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B105" s="3">
-        <v>44773</v>
+        <v>45128</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H105" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" s="3">
-        <v>44773</v>
+        <v>45128</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E106" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H106" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B107" s="3">
-        <v>44775</v>
+        <v>45130</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H107" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
+        <v>18</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45130</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="3">
-        <v>44776</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H108" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
+        <v>18</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45130</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="3">
-        <v>44778</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E109" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H109" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="3">
-        <v>44779</v>
+        <v>45135</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E110" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H110" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" s="3">
-        <v>44779</v>
+        <v>45135</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E111" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H111" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
+        <v>19</v>
+      </c>
+      <c r="B112" s="3">
+        <v>45136</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="3">
-        <v>44780</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H112" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="3">
-        <v>44780</v>
+        <v>45137</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E113" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H113" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="3">
-        <v>44780</v>
+        <v>45137</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E114" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H114" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B115" s="3">
-        <v>44782</v>
+        <v>45137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E115" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H115" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B116" s="3">
-        <v>44783</v>
+        <v>45149</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H116" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" s="3">
-        <v>44787</v>
+        <v>45151</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E117" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H117" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B118" s="3">
-        <v>44787</v>
+        <v>45151</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E118" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H118" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
+        <v>20</v>
+      </c>
+      <c r="B119" s="3">
+        <v>45151</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="3">
-        <v>44787</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="E119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E119" s="2">
-        <v>2</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H119" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B120" s="3">
-        <v>44787</v>
+        <v>45151</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E120" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H120" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B121" s="3">
-        <v>44787</v>
+        <v>45151</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H121" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,173 +4057,173 @@
         <v>21</v>
       </c>
       <c r="B122" s="3">
-        <v>44790</v>
+        <v>45158</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E122" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H122" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B123" s="3">
-        <v>44790</v>
+        <v>45158</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H123" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
+        <v>21</v>
+      </c>
+      <c r="B124" s="3">
+        <v>45158</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B124" s="3">
-        <v>44793</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D124" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E124" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H124" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B125" s="3">
-        <v>44793</v>
+        <v>45158</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E125" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H125" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B126" s="3">
-        <v>44793</v>
+        <v>45158</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E126" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H126" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B127" s="3">
-        <v>44793</v>
+        <v>45158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E127" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H127" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4237,28 +4231,28 @@
         <v>22</v>
       </c>
       <c r="B128" s="3">
-        <v>44793</v>
+        <v>45164</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E128" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H128" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,231 +4260,144 @@
         <v>22</v>
       </c>
       <c r="B129" s="3">
-        <v>44793</v>
+        <v>45164</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E129" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H129" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B130" s="3">
-        <v>44797</v>
+        <v>45164</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H130" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B131" s="3">
-        <v>44800</v>
+        <v>45164</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E131" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H131" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B132" s="3">
-        <v>44800</v>
+        <v>45164</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E132" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H132" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B133" s="3">
-        <v>44800</v>
+        <v>45164</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E133" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H133" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" s="3">
-        <v>44807</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="2">
-        <v>2</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="2">
-        <v>3</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B135" s="3">
-        <v>44808</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E135" s="2">
-        <v>3</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H135" s="2">
-        <v>1</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" s="3">
-        <v>44814</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3587EE-3BA4-4FC1-8A4B-30B2D5AA1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CCEE0-993B-4633-8D75-325BA14610DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CCEE0-993B-4633-8D75-325BA14610DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBCA10-5EA7-4CD7-8390-E0E1C2175B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>32</v>
@@ -1958,7 +1958,7 @@
         <v>33</v>
       </c>
       <c r="H49" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>28</v>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n10637427\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBCA10-5EA7-4CD7-8390-E0E1C2175B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FBB973-03E7-42A5-B550-DC71219987E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
+    <workbookView xWindow="3450" yWindow="10470" windowWidth="21600" windowHeight="11385" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="NPLQ fixtures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -528,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="E50" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>34</v>
@@ -1987,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>28</v>
@@ -2007,7 +2006,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
@@ -2016,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="H51" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>28</v>
@@ -2036,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="E52" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>22</v>
@@ -2045,7 +2044,7 @@
         <v>23</v>
       </c>
       <c r="H52" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>28</v>
@@ -2065,7 +2064,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>32</v>
@@ -2074,7 +2073,7 @@
         <v>33</v>
       </c>
       <c r="H53" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>28</v>
@@ -2094,7 +2093,7 @@
         <v>19</v>
       </c>
       <c r="E54" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>26</v>
@@ -2103,7 +2102,7 @@
         <v>27</v>
       </c>
       <c r="H54" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>28</v>
@@ -2123,7 +2122,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
@@ -2132,7 +2131,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>28</v>

--- a/NPLQ fixtures.xlsx
+++ b/NPLQ fixtures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n10637427\Documents\GitHub\olympicdataapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FBB973-03E7-42A5-B550-DC71219987E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD47A2C-3EFB-45B2-986E-BBC653E385D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="10470" windowWidth="21600" windowHeight="11385" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{502D6ED2-73F8-4C19-A642-B7CB9A006B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="NPLQ fixtures" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2F058-46A0-47E5-B2BA-3739D028E3CF}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -2160,10 +2160,10 @@
         <v>21</v>
       </c>
       <c r="H56" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
@@ -2189,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="H57" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>31</v>
       </c>
       <c r="E58" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>24</v>
@@ -2218,10 +2218,10 @@
         <v>25</v>
       </c>
       <c r="H58" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>32</v>
@@ -2247,10 +2247,10 @@
         <v>33</v>
       </c>
       <c r="H59" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="E60" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -2276,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="H60" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
@@ -2305,7 +2305,7 @@
         <v>23</v>
       </c>
       <c r="H61" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>28</v>
